--- a/pred_ohlcv/54_23/2019-10-18 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-18 LINK ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -4417,7 +4417,7 @@
         <v>2950</v>
       </c>
       <c r="F176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -4440,7 +4440,7 @@
         <v>2960</v>
       </c>
       <c r="F177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -4463,7 +4463,7 @@
         <v>2961</v>
       </c>
       <c r="F178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -4486,7 +4486,7 @@
         <v>2961</v>
       </c>
       <c r="F179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -4647,7 +4647,7 @@
         <v>2942</v>
       </c>
       <c r="F186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -4670,7 +4670,7 @@
         <v>2939</v>
       </c>
       <c r="F187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -4693,7 +4693,7 @@
         <v>2926</v>
       </c>
       <c r="F188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>2927</v>
       </c>
       <c r="F189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -6464,7 +6464,7 @@
         <v>2807</v>
       </c>
       <c r="F265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -6487,7 +6487,7 @@
         <v>2807</v>
       </c>
       <c r="F266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -6533,7 +6533,7 @@
         <v>2785</v>
       </c>
       <c r="F268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -6556,7 +6556,7 @@
         <v>2799</v>
       </c>
       <c r="F269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -7138,6 +7138,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>